--- a/productgenerator/productgen/productgen.xlsx
+++ b/productgenerator/productgen/productgen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stewartrobertson\Source\Repos\redfedoraecom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stewartrobertson\Source\Repos\redfedoraecom\productgenerator\productgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,15 +32,9 @@
     <t>Ted Faker</t>
   </si>
   <si>
-    <t>Prata</t>
-  </si>
-  <si>
     <t>Emporer Salami</t>
   </si>
   <si>
-    <t>Louise Whatson</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
@@ -86,13 +80,19 @@
     <t>formal</t>
   </si>
   <si>
-    <t>fancy dress</t>
-  </si>
-  <si>
     <t>Hats &gt; Flat Caps &gt; Rounded</t>
   </si>
   <si>
     <t>Hats &gt; Flat Caps &gt; Peaked</t>
+  </si>
+  <si>
+    <t>Louise Veeton</t>
+  </si>
+  <si>
+    <t>Prat-a</t>
+  </si>
+  <si>
+    <t>hand made</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,16 +470,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,65 +487,65 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/productgenerator/productgen/productgen.xlsx
+++ b/productgenerator/productgen/productgen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Brands</t>
   </si>
@@ -89,10 +89,16 @@
     <t>Louise Veeton</t>
   </si>
   <si>
-    <t>Prat-a</t>
-  </si>
-  <si>
     <t>hand made</t>
+  </si>
+  <si>
+    <t>Timmy Hellfire</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Viveeon Eastwood</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +524,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -539,6 +545,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -546,6 +555,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
